--- a/tut05/output/0401CS25.xlsx
+++ b/tut05/output/0401CS25.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.020408163265306</v>
+        <v>7.02</v>
       </c>
       <c r="C6" t="n">
-        <v>6.545454545454546</v>
+        <v>6.55</v>
       </c>
       <c r="D6" t="n">
-        <v>6.86046511627907</v>
+        <v>6.86</v>
       </c>
       <c r="E6" t="n">
-        <v>6.914893617021277</v>
+        <v>6.91</v>
       </c>
       <c r="F6" t="n">
-        <v>7.809523809523809</v>
+        <v>7.81</v>
       </c>
       <c r="G6" t="n">
         <v>6.75</v>
       </c>
       <c r="H6" t="n">
-        <v>8.195121951219512</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>7.8</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.020408163265306</v>
+        <v>7.02</v>
       </c>
       <c r="C8" t="n">
-        <v>6.795698924731183</v>
+        <v>6.8</v>
       </c>
       <c r="D8" t="n">
-        <v>6.816176470588236</v>
+        <v>6.82</v>
       </c>
       <c r="E8" t="n">
-        <v>6.841530054644808</v>
+        <v>6.84</v>
       </c>
       <c r="F8" t="n">
-        <v>7.022222222222222</v>
+        <v>7.02</v>
       </c>
       <c r="G8" t="n">
-        <v>6.981132075471698</v>
+        <v>6.98</v>
       </c>
       <c r="H8" t="n">
-        <v>7.143790849673203</v>
+        <v>7.14</v>
       </c>
       <c r="I8" t="n">
-        <v>7.219653179190751</v>
+        <v>7.22</v>
       </c>
     </row>
   </sheetData>
